--- a/tests/specs/unit/financeTests.xlsx
+++ b/tests/specs/unit/financeTests.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28209"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cory\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cory/Projects/finance/tests/specs/unit/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20130" windowHeight="14235"/>
+    <workbookView xWindow="380" yWindow="880" windowWidth="20140" windowHeight="14240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -35,7 +41,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000000000000000000000000000"/>
   </numFmts>
@@ -385,18 +391,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="40.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -404,163 +410,148 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <f>FV(0.06/12,10,-200,-500,1)</f>
         <v>2581.4033740601185</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <f>FV(0.12/12,12,-1000)</f>
         <v>12682.503013196976</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <f>FV(0.11/12,35,-2000,0,1)</f>
         <v>82846.246371900546</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <f>FV(0.06/12, 12, -100, -1000, 1)</f>
         <v>2301.4018303408993</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <f>PV(0.08/12, 20*12, 500)</f>
         <v>-59777.145851187823</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <f>NPV(0.1,-10000,3000,4200,6800)</f>
         <v>1188.4434123352207</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <f>NPV(0.08, 8000, 9200, 10000, 12000, 14500) + (-40000)</f>
         <v>1922.0615549323702</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <f>NPV(0.08, 8000, 9200, 10000, 12000, 14500, -9000) + (-40000)</f>
         <v>-3749.4650870155747</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <f>NPER(0.12/12, -100, -1000, 10000, 1)</f>
         <v>59.673865674294568</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <f>NPER((0.12/12), -100, -1000, 10000)</f>
         <v>60.082122853761661</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <f>NPER((0.12/12), -100, -1000)</f>
         <v>-9.5785940398131615</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <f>PMT((0.08/12), 10, 10000)</f>
         <v>-1037.0320893591522</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <f>PMT((0.08/12), 10, 10000, 0, 1)</f>
         <v>-1030.1643271779658</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <f>PMT((0.06/12), 18*12, 0, 50000)</f>
         <v>-129.08116086799092</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <f>IPMT((0.1/12), 1, 3*12, 8000)</f>
         <v>-66.666666666666671</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <f>IPMT(0.1, 3, 3, 8000)</f>
         <v>-292.44712990936563</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <f>PPMT((0.1/12), 1, 2*12, 2000)</f>
         <v>-75.623186008366332</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <f>PPMT(0.08, 10, 10, 200000)</f>
         <v>-27598.053462421372</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <f>EFFECT(0.0525, 4)</f>
         <v>5.3542667370758412E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <f>NOMINAL(0.053543, 4)</f>
         <v>5.2500319868356016E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <f>RATE(4*12, -200, 8000)</f>
         <v>7.7014724882013682E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <f>RATE(4*12, -200, 8000)*12</f>
         <v>9.2417669858416415E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <f>IRR(B24:F24)</f>
+        <f>RATE(360, -772.46, 96000)*12</f>
+        <v>9.0003226583000639E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <f>IRR(B25:F25)</f>
         <v>-2.1244848273410888E-2</v>
-      </c>
-      <c r="B24">
-        <v>-70000</v>
-      </c>
-      <c r="C24">
-        <v>12000</v>
-      </c>
-      <c r="D24">
-        <v>15000</v>
-      </c>
-      <c r="E24">
-        <v>18000</v>
-      </c>
-      <c r="F24">
-        <v>21000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <f>IRR(B25:G25)</f>
-        <v>8.663094803652216E-2</v>
       </c>
       <c r="B25">
         <v>-70000</v>
@@ -577,14 +568,11 @@
       <c r="F25">
         <v>21000</v>
       </c>
-      <c r="G25">
-        <v>26000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <f>IRR(B26:G26, -0.1)</f>
-        <v>-0.44350694133473989</v>
+        <f>IRR(B26:G26)</f>
+        <v>8.663094803652216E-2</v>
       </c>
       <c r="B26">
         <v>-70000</v>
@@ -595,21 +583,45 @@
       <c r="D26">
         <v>15000</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>18000</v>
+      </c>
+      <c r="F26">
+        <v>21000</v>
+      </c>
+      <c r="G26">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
+        <f>IRR(B27:G27, -0.1)</f>
+        <v>-0.44350694133473989</v>
+      </c>
+      <c r="B27">
+        <v>-70000</v>
+      </c>
+      <c r="C27">
+        <v>12000</v>
+      </c>
+      <c r="D27">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
         <f>300000/400000</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
         <f>200000/300000</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
         <f>300000/1</f>
         <v>300000</v>
       </c>
